--- a/Arquivo de estudantes/Cadastro de estudantes/Lista de estudantes.xlsx
+++ b/Arquivo de estudantes/Cadastro de estudantes/Lista de estudantes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
   <si>
     <t>Nome</t>
   </si>
@@ -65,9 +65,6 @@
     <t>Feminino</t>
   </si>
   <si>
-    <t>Dalita</t>
-  </si>
-  <si>
     <t>…</t>
   </si>
   <si>
@@ -81,6 +78,9 @@
   </si>
   <si>
     <t>Enia</t>
+  </si>
+  <si>
+    <t>Amelia</t>
   </si>
 </sst>
 </file>
@@ -539,7 +539,7 @@
   <dimension ref="A8:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -633,10 +633,10 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="E12" s="2">
+        <v>18</v>
       </c>
       <c r="F12" s="13" t="s">
         <v>12</v>
@@ -645,18 +645,18 @@
         <v>7</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I12" s="3">
-        <v>844514296</v>
+        <v>858400925</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E13" s="13">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="F13" s="13" t="s">
         <v>6</v>
@@ -665,7 +665,7 @@
         <v>7</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I13" s="3">
         <v>865636446</v>
@@ -673,7 +673,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D14" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E14" s="13">
         <v>29</v>
@@ -682,10 +682,10 @@
         <v>12</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I14" s="3">
         <v>874841966</v>
@@ -696,7 +696,7 @@
         <v>9</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E15" s="13">
         <v>18</v>
@@ -708,7 +708,7 @@
         <v>7</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I15" s="3">
         <v>879756405</v>
